--- a/2tecnolog/output.xlsx
+++ b/2tecnolog/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IK2"/>
+  <dimension ref="A1:HP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,297 +1354,192 @@
       </c>
       <c r="GE1" t="inlineStr">
         <is>
-          <t>t_D_1_coorect0</t>
+          <t>t_EOc0</t>
         </is>
       </c>
       <c r="GF1" t="inlineStr">
         <is>
-          <t>t_D_2_coorect0</t>
+          <t>t_EOc1</t>
         </is>
       </c>
       <c r="GG1" t="inlineStr">
         <is>
-          <t>t_to1_coorect0</t>
+          <t>t_EOc2</t>
         </is>
       </c>
       <c r="GH1" t="inlineStr">
         <is>
-          <t>t_to2_coorect0</t>
+          <t>t_EOc3</t>
         </is>
       </c>
       <c r="GI1" t="inlineStr">
         <is>
-          <t>t_tr_coorect0</t>
+          <t>t_to10</t>
         </is>
       </c>
       <c r="GJ1" t="inlineStr">
         <is>
-          <t>t_D_1_coorect1</t>
+          <t>t_to11</t>
         </is>
       </c>
       <c r="GK1" t="inlineStr">
         <is>
-          <t>t_D_2_coorect1</t>
+          <t>t_to12</t>
         </is>
       </c>
       <c r="GL1" t="inlineStr">
         <is>
-          <t>t_to1_coorect1</t>
+          <t>t_to13</t>
         </is>
       </c>
       <c r="GM1" t="inlineStr">
         <is>
-          <t>t_to2_coorect1</t>
+          <t>t_to20</t>
         </is>
       </c>
       <c r="GN1" t="inlineStr">
         <is>
-          <t>t_tr_coorect1</t>
+          <t>t_to21</t>
         </is>
       </c>
       <c r="GO1" t="inlineStr">
         <is>
-          <t>t_D_1_coorect2</t>
+          <t>t_to22</t>
         </is>
       </c>
       <c r="GP1" t="inlineStr">
         <is>
-          <t>t_D_2_coorect2</t>
+          <t>t_to23</t>
         </is>
       </c>
       <c r="GQ1" t="inlineStr">
         <is>
-          <t>t_to1_coorect2</t>
+          <t>t_tr10000</t>
         </is>
       </c>
       <c r="GR1" t="inlineStr">
         <is>
-          <t>t_to2_coorect2</t>
+          <t>t_tr10001</t>
         </is>
       </c>
       <c r="GS1" t="inlineStr">
         <is>
-          <t>t_tr_coorect2</t>
+          <t>t_tr10002</t>
         </is>
       </c>
       <c r="GT1" t="inlineStr">
         <is>
-          <t>t_D_1_coorect3</t>
+          <t>t_tr10003</t>
         </is>
       </c>
       <c r="GU1" t="inlineStr">
         <is>
-          <t>t_D_2_coorect3</t>
+          <t>T_EO_year0</t>
         </is>
       </c>
       <c r="GV1" t="inlineStr">
         <is>
-          <t>t_to1_coorect3</t>
+          <t>T_EO_year1</t>
         </is>
       </c>
       <c r="GW1" t="inlineStr">
         <is>
-          <t>t_to2_coorect3</t>
+          <t>T_EO_year2</t>
         </is>
       </c>
       <c r="GX1" t="inlineStr">
         <is>
-          <t>t_tr_coorect3</t>
+          <t>T_EO_year3</t>
         </is>
       </c>
       <c r="GY1" t="inlineStr">
         <is>
-          <t>t_EOc0</t>
+          <t>T_to1_year0</t>
         </is>
       </c>
       <c r="GZ1" t="inlineStr">
         <is>
-          <t>t_EOc1</t>
+          <t>T_to1_year1</t>
         </is>
       </c>
       <c r="HA1" t="inlineStr">
         <is>
-          <t>t_EOc2</t>
+          <t>T_to1_year2</t>
         </is>
       </c>
       <c r="HB1" t="inlineStr">
         <is>
-          <t>t_EOc3</t>
+          <t>T_to1_year3</t>
         </is>
       </c>
       <c r="HC1" t="inlineStr">
         <is>
-          <t>t_to10</t>
+          <t>T_to2_year0</t>
         </is>
       </c>
       <c r="HD1" t="inlineStr">
         <is>
-          <t>t_to11</t>
+          <t>T_to2_year1</t>
         </is>
       </c>
       <c r="HE1" t="inlineStr">
         <is>
-          <t>t_to12</t>
+          <t>T_to2_year2</t>
         </is>
       </c>
       <c r="HF1" t="inlineStr">
         <is>
-          <t>t_to13</t>
+          <t>T_to2_year3</t>
         </is>
       </c>
       <c r="HG1" t="inlineStr">
         <is>
-          <t>t_to20</t>
+          <t>T_tr1000_year0</t>
         </is>
       </c>
       <c r="HH1" t="inlineStr">
         <is>
-          <t>t_to21</t>
+          <t>T_tr1000_year1</t>
         </is>
       </c>
       <c r="HI1" t="inlineStr">
         <is>
-          <t>t_to22</t>
+          <t>T_tr1000_year2</t>
         </is>
       </c>
       <c r="HJ1" t="inlineStr">
         <is>
-          <t>t_to23</t>
+          <t>T_tr1000_year3</t>
         </is>
       </c>
       <c r="HK1" t="inlineStr">
         <is>
-          <t>t_tr10000</t>
+          <t>T_EO_year_all</t>
         </is>
       </c>
       <c r="HL1" t="inlineStr">
         <is>
-          <t>t_tr10001</t>
+          <t>T_D1_year_all</t>
         </is>
       </c>
       <c r="HM1" t="inlineStr">
         <is>
-          <t>t_tr10002</t>
+          <t>T_D2_year_all</t>
         </is>
       </c>
       <c r="HN1" t="inlineStr">
         <is>
-          <t>t_tr10003</t>
+          <t>T_to1_year_all</t>
         </is>
       </c>
       <c r="HO1" t="inlineStr">
         <is>
-          <t>T_EO_year0</t>
+          <t>T_to2_year_all</t>
         </is>
       </c>
       <c r="HP1" t="inlineStr">
         <is>
-          <t>T_EO_year1</t>
-        </is>
-      </c>
-      <c r="HQ1" t="inlineStr">
-        <is>
-          <t>T_EO_year2</t>
-        </is>
-      </c>
-      <c r="HR1" t="inlineStr">
-        <is>
-          <t>T_EO_year3</t>
-        </is>
-      </c>
-      <c r="HS1" t="inlineStr">
-        <is>
-          <t>T_to1_year0</t>
-        </is>
-      </c>
-      <c r="HT1" t="inlineStr">
-        <is>
-          <t>T_to1_year1</t>
-        </is>
-      </c>
-      <c r="HU1" t="inlineStr">
-        <is>
-          <t>T_to1_year2</t>
-        </is>
-      </c>
-      <c r="HV1" t="inlineStr">
-        <is>
-          <t>T_to1_year3</t>
-        </is>
-      </c>
-      <c r="HW1" t="inlineStr">
-        <is>
-          <t>T_to2_year0</t>
-        </is>
-      </c>
-      <c r="HX1" t="inlineStr">
-        <is>
-          <t>T_to2_year1</t>
-        </is>
-      </c>
-      <c r="HY1" t="inlineStr">
-        <is>
-          <t>T_to2_year2</t>
-        </is>
-      </c>
-      <c r="HZ1" t="inlineStr">
-        <is>
-          <t>T_to2_year3</t>
-        </is>
-      </c>
-      <c r="IA1" t="inlineStr">
-        <is>
-          <t>T_tr1000_year0</t>
-        </is>
-      </c>
-      <c r="IB1" t="inlineStr">
-        <is>
-          <t>T_tr1000_year1</t>
-        </is>
-      </c>
-      <c r="IC1" t="inlineStr">
-        <is>
-          <t>T_tr1000_year2</t>
-        </is>
-      </c>
-      <c r="ID1" t="inlineStr">
-        <is>
-          <t>T_tr1000_year3</t>
-        </is>
-      </c>
-      <c r="IE1" t="inlineStr">
-        <is>
-          <t>T_EO_year_all</t>
-        </is>
-      </c>
-      <c r="IF1" t="inlineStr">
-        <is>
-          <t>T_D1_year_all</t>
-        </is>
-      </c>
-      <c r="IG1" t="inlineStr">
-        <is>
-          <t>T_D2_year_all</t>
-        </is>
-      </c>
-      <c r="IH1" t="inlineStr">
-        <is>
-          <t>T_to1_year_all</t>
-        </is>
-      </c>
-      <c r="II1" t="inlineStr">
-        <is>
-          <t>T_to2_year_all</t>
-        </is>
-      </c>
-      <c r="IJ1" t="inlineStr">
-        <is>
           <t>T_tr1000_year_all</t>
-        </is>
-      </c>
-      <c r="IK1" t="inlineStr">
-        <is>
-          <t>T_vsp</t>
         </is>
       </c>
     </row>
@@ -2217,222 +2112,119 @@
       <c r="GD2" t="n">
         <v>1</v>
       </c>
-      <c r="GE2" t="inlineStr">
-        <is>
-          <t>922.19⋅0.15+3726.95⋅0.01=175.6</t>
-        </is>
-      </c>
-      <c r="GF2" t="inlineStr">
-        <is>
-          <t>1109.84⋅0.12+3726.95⋅0.01=170.45</t>
-        </is>
-      </c>
-      <c r="GG2" t="inlineStr">
-        <is>
-          <t>138.33=783.86</t>
-        </is>
-      </c>
-      <c r="GH2" t="inlineStr">
-        <is>
-          <t>133.18=976.66</t>
-        </is>
-      </c>
-      <c r="GI2" t="inlineStr">
-        <is>
-          <t>(37.27+37.27)=3652.41</t>
-        </is>
-      </c>
-      <c r="GJ2" t="inlineStr">
-        <is>
-          <t>2887.32⋅0.25+11562.9⋅0.01=837.46</t>
-        </is>
-      </c>
-      <c r="GK2" t="inlineStr">
-        <is>
-          <t>3614.05⋅0.1+11562.9⋅0.01=477.03</t>
-        </is>
-      </c>
-      <c r="GL2" t="inlineStr">
-        <is>
-          <t>721.83=2165.49</t>
-        </is>
-      </c>
-      <c r="GM2" t="inlineStr">
-        <is>
-          <t>361.4=3252.65</t>
-        </is>
-      </c>
-      <c r="GN2" t="inlineStr">
-        <is>
-          <t>(115.63+115.63)=11331.64</t>
-        </is>
-      </c>
-      <c r="GO2" t="inlineStr">
-        <is>
-          <t>8315.83⋅0.25+35381.79⋅0.01=2432.78</t>
-        </is>
-      </c>
-      <c r="GP2" t="inlineStr">
-        <is>
-          <t>8238.07⋅0.1+35381.79⋅0.01=1177.63</t>
-        </is>
-      </c>
-      <c r="GQ2" t="inlineStr">
-        <is>
-          <t>2078.96=6236.87</t>
-        </is>
-      </c>
-      <c r="GR2" t="inlineStr">
-        <is>
-          <t>823.81=7414.26</t>
-        </is>
-      </c>
-      <c r="GS2" t="inlineStr">
-        <is>
-          <t>(353.82+353.82)=34674.15</t>
-        </is>
-      </c>
-      <c r="GT2" t="inlineStr">
-        <is>
-          <t>2918.31⋅0.25+3802.11⋅0.01=767.6</t>
-        </is>
-      </c>
-      <c r="GU2" t="inlineStr">
-        <is>
-          <t>3640.42⋅0.1+3802.11⋅0.01=402.06</t>
-        </is>
-      </c>
-      <c r="GV2" t="inlineStr">
-        <is>
-          <t>729.58=2188.73</t>
-        </is>
-      </c>
-      <c r="GW2" t="inlineStr">
-        <is>
-          <t>364.04=3276.38</t>
-        </is>
-      </c>
-      <c r="GX2" t="inlineStr">
-        <is>
-          <t>(38.02+38.02)=3726.07</t>
-        </is>
+      <c r="GE2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>29.04</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>2123.17</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>9334.969999999999</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>15053.7</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>2970.09</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.31</v>
+        <v>922.1900000000001</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.3</v>
+        <v>2887.32</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.44</v>
+        <v>8315.83</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.2</v>
+        <v>2918.31</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.74</v>
+        <v>1109.84</v>
       </c>
       <c r="HD2" t="n">
-        <v>3.96</v>
+        <v>3614.05</v>
       </c>
       <c r="HE2" t="n">
-        <v>9.08</v>
+        <v>8238.07</v>
       </c>
       <c r="HF2" t="n">
-        <v>5.24</v>
+        <v>3640.42</v>
       </c>
       <c r="HG2" t="n">
-        <v>22.78</v>
+        <v>3726.95</v>
       </c>
       <c r="HH2" t="n">
-        <v>15.84</v>
+        <v>11562.9</v>
       </c>
       <c r="HI2" t="n">
-        <v>29.04</v>
+        <v>35381.79</v>
       </c>
       <c r="HJ2" t="n">
-        <v>20.94</v>
+        <v>3802.11</v>
       </c>
       <c r="HK2" t="n">
-        <v>4.59</v>
+        <v>29481.93</v>
       </c>
       <c r="HL2" t="n">
-        <v>4.28</v>
+        <v>1920.11</v>
       </c>
       <c r="HM2" t="n">
-        <v>9.58</v>
+        <v>1935.94</v>
       </c>
       <c r="HN2" t="n">
-        <v>2.23</v>
+        <v>13668.28</v>
       </c>
       <c r="HO2" t="n">
-        <v>2123.17</v>
+        <v>15211.18</v>
       </c>
       <c r="HP2" t="n">
-        <v>9334.969999999999</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>15053.7</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>2970.09</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>922.1900000000001</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>2887.32</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>8315.83</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>2918.31</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>1109.84</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>3614.05</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>8238.07</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>3640.42</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>3726.95</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>11562.9</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>35381.79</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>3802.11</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>29481.93</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>4213.440000000001</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>2227.17</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>11374.95</v>
-      </c>
-      <c r="II2" t="n">
-        <v>14919.95</v>
-      </c>
-      <c r="IJ2" t="n">
         <v>53384.27</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>21832.22</v>
       </c>
     </row>
   </sheetData>
